--- a/natmiOut/OldD0/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.1445048146304</v>
+        <v>67.77251700000001</v>
       </c>
       <c r="H2">
-        <v>33.1445048146304</v>
+        <v>203.317551</v>
       </c>
       <c r="I2">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="J2">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N2">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q2">
-        <v>357.0216203972517</v>
+        <v>1428.767575114999</v>
       </c>
       <c r="R2">
-        <v>357.0216203972517</v>
+        <v>12858.90817603499</v>
       </c>
       <c r="S2">
-        <v>0.007748261899174138</v>
+        <v>0.02331945586096941</v>
       </c>
       <c r="T2">
-        <v>0.007748261899174138</v>
+        <v>0.02331945586096941</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.1445048146304</v>
+        <v>67.77251700000001</v>
       </c>
       <c r="H3">
-        <v>33.1445048146304</v>
+        <v>203.317551</v>
       </c>
       <c r="I3">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="J3">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N3">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q3">
-        <v>9871.77908994949</v>
+        <v>20440.2012027142</v>
       </c>
       <c r="R3">
-        <v>9871.77908994949</v>
+        <v>183961.8108244278</v>
       </c>
       <c r="S3">
-        <v>0.2142422907458978</v>
+        <v>0.3336122529919972</v>
       </c>
       <c r="T3">
-        <v>0.2142422907458978</v>
+        <v>0.3336122529919972</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.1445048146304</v>
+        <v>67.77251700000001</v>
       </c>
       <c r="H4">
-        <v>33.1445048146304</v>
+        <v>203.317551</v>
       </c>
       <c r="I4">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="J4">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N4">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q4">
-        <v>1502.163352805492</v>
+        <v>3126.701992333412</v>
       </c>
       <c r="R4">
-        <v>1502.163352805492</v>
+        <v>28140.3179310007</v>
       </c>
       <c r="S4">
-        <v>0.03260070093213902</v>
+        <v>0.05103208553340487</v>
       </c>
       <c r="T4">
-        <v>0.03260070093213902</v>
+        <v>0.05103208553340487</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>59.8357744425197</v>
+        <v>60.97760633333333</v>
       </c>
       <c r="H5">
-        <v>59.8357744425197</v>
+        <v>182.932819</v>
       </c>
       <c r="I5">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="J5">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N5">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q5">
-        <v>644.5311302331811</v>
+        <v>1285.518534558686</v>
       </c>
       <c r="R5">
-        <v>644.5311302331811</v>
+        <v>11569.66681102818</v>
       </c>
       <c r="S5">
-        <v>0.01398793718335789</v>
+        <v>0.0209814341025247</v>
       </c>
       <c r="T5">
-        <v>0.01398793718335789</v>
+        <v>0.0209814341025247</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>59.8357744425197</v>
+        <v>60.97760633333333</v>
       </c>
       <c r="H6">
-        <v>59.8357744425197</v>
+        <v>182.932819</v>
       </c>
       <c r="I6">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="J6">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N6">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q6">
-        <v>17821.52276150055</v>
+        <v>18390.85513547081</v>
       </c>
       <c r="R6">
-        <v>17821.52276150055</v>
+        <v>165517.6962192373</v>
       </c>
       <c r="S6">
-        <v>0.386771606841495</v>
+        <v>0.3001641008983392</v>
       </c>
       <c r="T6">
-        <v>0.386771606841495</v>
+        <v>0.3001641008983392</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>59.8357744425197</v>
+        <v>60.97760633333333</v>
       </c>
       <c r="H7">
-        <v>59.8357744425197</v>
+        <v>182.932819</v>
       </c>
       <c r="I7">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="J7">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N7">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q7">
-        <v>2711.855496317839</v>
+        <v>2813.217092264048</v>
       </c>
       <c r="R7">
-        <v>2711.855496317839</v>
+        <v>25318.95383037643</v>
       </c>
       <c r="S7">
-        <v>0.05885404529508777</v>
+        <v>0.04591557993965249</v>
       </c>
       <c r="T7">
-        <v>0.05885404529508777</v>
+        <v>0.04591557993965248</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>37.2068514825103</v>
+        <v>37.37372866666667</v>
       </c>
       <c r="H8">
-        <v>37.2068514825103</v>
+        <v>112.121186</v>
       </c>
       <c r="I8">
-        <v>0.2857951571028484</v>
+        <v>0.2249750906731122</v>
       </c>
       <c r="J8">
-        <v>0.2857951571028484</v>
+        <v>0.2249750906731122</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N8">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q8">
-        <v>400.7798722731903</v>
+        <v>787.9059837792252</v>
       </c>
       <c r="R8">
-        <v>400.7798722731903</v>
+        <v>7091.153854013027</v>
       </c>
       <c r="S8">
-        <v>0.008697925382880098</v>
+        <v>0.01285971149636039</v>
       </c>
       <c r="T8">
-        <v>0.008697925382880098</v>
+        <v>0.01285971149636039</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>37.2068514825103</v>
+        <v>37.37372866666667</v>
       </c>
       <c r="H9">
-        <v>37.2068514825103</v>
+        <v>112.121186</v>
       </c>
       <c r="I9">
-        <v>0.2857951571028484</v>
+        <v>0.2249750906731122</v>
       </c>
       <c r="J9">
-        <v>0.2857951571028484</v>
+        <v>0.2249750906731122</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N9">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q9">
-        <v>11081.71084534567</v>
+        <v>11271.92212209433</v>
       </c>
       <c r="R9">
-        <v>11081.71084534567</v>
+        <v>101447.299098849</v>
       </c>
       <c r="S9">
-        <v>0.2405008352858779</v>
+        <v>0.1839733032668428</v>
       </c>
       <c r="T9">
-        <v>0.2405008352858779</v>
+        <v>0.1839733032668428</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>37.2068514825103</v>
+        <v>37.37372866666667</v>
       </c>
       <c r="H10">
-        <v>37.2068514825103</v>
+        <v>112.121186</v>
       </c>
       <c r="I10">
-        <v>0.2857951571028484</v>
+        <v>0.2249750906731122</v>
       </c>
       <c r="J10">
-        <v>0.2857951571028484</v>
+        <v>0.2249750906731122</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N10">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q10">
-        <v>1686.27557065305</v>
+        <v>1724.246303010924</v>
       </c>
       <c r="R10">
-        <v>1686.27557065305</v>
+        <v>15518.21672709832</v>
       </c>
       <c r="S10">
-        <v>0.03659639643409039</v>
+        <v>0.02814207590990901</v>
       </c>
       <c r="T10">
-        <v>0.03659639643409039</v>
+        <v>0.02814207590990901</v>
       </c>
     </row>
   </sheetData>
